--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_GlassEDS_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_GlassEDS_averaged.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JL3"/>
+  <dimension ref="A1:JK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,1357 +440,1352 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sample Name</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sample_short</t>
+          <t>Total_wt%_Gl</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total_wt%</t>
+          <t>Total_Oxide%_Gl</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total_Oxide%</t>
+          <t>Al2O3_Gl</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Al2O3</t>
+          <t>CaO_Gl</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CaO</t>
+          <t>FeOt_Gl</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>FeOt</t>
+          <t>K2O_Gl</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>K2O</t>
+          <t>MgO_Gl</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MgO</t>
+          <t>MnO_Gl</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>MnO</t>
+          <t>Na2O_Gl</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Na2O</t>
+          <t>P2O5_Gl</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P2O5</t>
+          <t>SO2_Gl</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>SO2</t>
+          <t>SiO2_Gl</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>SiO2</t>
+          <t>TiO2_Gl</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>TiO2</t>
+          <t>Oxide % Sigma_Al2O3_Gl</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_Al2O3</t>
+          <t>Oxide % Sigma_CaO_Gl</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_CaO</t>
+          <t>Oxide % Sigma_FeOt_Gl</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_FeOt</t>
+          <t>Oxide % Sigma_K2O_Gl</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_K2O</t>
+          <t>Oxide % Sigma_MgO_Gl</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_MgO</t>
+          <t>Oxide % Sigma_MnO_Gl</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_MnO</t>
+          <t>Oxide % Sigma_Na2O_Gl</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_Na2O</t>
+          <t>Oxide % Sigma_P2O5_Gl</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_P2O5</t>
+          <t>Oxide % Sigma_S_Gl</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_S</t>
+          <t>Oxide % Sigma_SiO2_Gl</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_SiO2</t>
+          <t>Oxide % Sigma_TiO2_Gl</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_TiO2</t>
+          <t>Al2O3_norm_Gl</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Al2O3_norm</t>
+          <t>CaO_norm_Gl</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>CaO_norm</t>
+          <t>FeOt_norm_Gl</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>FeOt_norm</t>
+          <t>K2O_norm_Gl</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>K2O_norm</t>
+          <t>MgO_norm_Gl</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MgO_norm</t>
+          <t>MnO_norm_Gl</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MnO_norm</t>
+          <t>Na2O_norm_Gl</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Na2O_norm</t>
+          <t>P2O5_norm_Gl</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>P2O5_norm</t>
+          <t>SO2_norm_Gl</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>SO2_norm</t>
+          <t>SiO2_norm_Gl</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>SiO2_norm</t>
+          <t>TiO2_norm_Gl</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>TiO2_norm</t>
+          <t>Wt%_Al_Gl</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Al</t>
+          <t>Wt%_Ca_Gl</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Ca</t>
+          <t>Wt%_Fe_Gl</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Fe</t>
+          <t>Wt%_K_Gl</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_K</t>
+          <t>Wt%_Mg_Gl</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Mg</t>
+          <t>Wt%_Mn_Gl</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Mn</t>
+          <t>Wt%_Na_Gl</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Na</t>
+          <t>Wt%_O_Gl</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_O</t>
+          <t>Wt%_P_Gl</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_P</t>
+          <t>Wt%_S_Gl</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_S</t>
+          <t>Wt%_Si_Gl</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Si</t>
+          <t>Wt%_Ti_Gl</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Ti</t>
+          <t>Wt% Sigma_Al_Gl</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Al</t>
+          <t>Wt% Sigma_Ca_Gl</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Ca</t>
+          <t>Wt% Sigma_Fe_Gl</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Fe</t>
+          <t>Wt% Sigma_K_Gl</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_K</t>
+          <t>Wt% Sigma_Mg_Gl</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Mg</t>
+          <t>Wt% Sigma_Mn_Gl</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Mn</t>
+          <t>Wt% Sigma_Na_Gl</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Na</t>
+          <t>Wt% Sigma_P_Gl</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_P</t>
+          <t>Wt% Sigma_S_Gl</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_S</t>
+          <t>Wt% Sigma_Si_Gl</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Si</t>
+          <t>Wt% Sigma_Ti_Gl</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Ti</t>
+          <t>Atomic %_Al_Gl</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Al</t>
+          <t>Atomic %_Ca_Gl</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Ca</t>
+          <t>Atomic %_Fe_Gl</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Fe</t>
+          <t>Atomic %_K_Gl</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_K</t>
+          <t>Atomic %_Mg_Gl</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Mg</t>
+          <t>Atomic %_Mn_Gl</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Mn</t>
+          <t>Atomic %_Na_Gl</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Na</t>
+          <t>Atomic %_O_Gl</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_O</t>
+          <t>Atomic %_P_Gl</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_P</t>
+          <t>Atomic %_S_Gl</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_S</t>
+          <t>Atomic %_Si_Gl</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Si</t>
+          <t>Atomic %_Ti_Gl</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Ti</t>
+          <t>Intensity Correction_Al_Gl</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Al</t>
+          <t>Intensity Correction_Ca_Gl</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Ca</t>
+          <t>Intensity Correction_Fe_Gl</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Fe</t>
+          <t>Intensity Correction_K_Gl</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_K</t>
+          <t>Intensity Correction_Mg_Gl</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Mg</t>
+          <t>Intensity Correction_Mn_Gl</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Mn</t>
+          <t>Intensity Correction_Na_Gl</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Na</t>
+          <t>Intensity Correction_P_Gl</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_P</t>
+          <t>Intensity Correction_S_Gl</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_S</t>
+          <t>Intensity Correction_Si_Gl</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Si</t>
+          <t>Intensity Correction_Ti_Gl</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Ti</t>
+          <t>Oxide_Al2O3_Gl</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_Al2O3</t>
+          <t>Oxide_CaO_Gl</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_CaO</t>
+          <t>Oxide_FeOt_Gl</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_FeOt</t>
+          <t>Oxide_K2O_Gl</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_K2O</t>
+          <t>Oxide_MgO_Gl</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_MgO</t>
+          <t>Oxide_MnO_Gl</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_MnO</t>
+          <t>Oxide_Na2O_Gl</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_Na2O</t>
+          <t>Oxide_P2O5_Gl</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_P2O5</t>
+          <t>Oxide_S_Gl</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_S</t>
+          <t>Oxide_SiO2_Gl</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_SiO2</t>
+          <t>Oxide_TiO2_Gl</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>Oxide_TiO2</t>
+          <t>Signal Type_Al_Gl</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Al</t>
+          <t>Signal Type_Ca_Gl</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Ca</t>
+          <t>Signal Type_Fe_Gl</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Fe</t>
+          <t>Signal Type_K_Gl</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_K</t>
+          <t>Signal Type_Mg_Gl</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Mg</t>
+          <t>Signal Type_Mn_Gl</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Mn</t>
+          <t>Signal Type_Na_Gl</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Na</t>
+          <t>Signal Type_P_Gl</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_P</t>
+          <t>Signal Type_S_Gl</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_S</t>
+          <t>Signal Type_Si_Gl</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Si</t>
+          <t>Signal Type_Ti_Gl</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>Signal Type_Ti</t>
+          <t>Standard Name_Al_Gl</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Al</t>
+          <t>Standard Name_Ca_Gl</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Ca</t>
+          <t>Standard Name_Fe_Gl</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Fe</t>
+          <t>Standard Name_K_Gl</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_K</t>
+          <t>Standard Name_Mg_Gl</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Mg</t>
+          <t>Standard Name_Mn_Gl</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Mn</t>
+          <t>Standard Name_Na_Gl</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Na</t>
+          <t>Standard Name_P_Gl</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_P</t>
+          <t>Standard Name_S_Gl</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_S</t>
+          <t>Standard Name_Si_Gl</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Si</t>
+          <t>Standard Name_Ti_Gl</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>Standard Name_Ti</t>
+          <t>Standardization Date_Fe_Gl</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>Standardization Date_Fe</t>
+          <t>Standardization Date_Mg_Gl</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>Standardization Date_Mg</t>
+          <t>Standardization Date_Si_Gl</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>Standardization Date_Si</t>
+          <t>k Ratio_Al_Gl</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Al</t>
+          <t>k Ratio_Ca_Gl</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Ca</t>
+          <t>k Ratio_Fe_Gl</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Fe</t>
+          <t>k Ratio_K_Gl</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_K</t>
+          <t>k Ratio_Mg_Gl</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Mg</t>
+          <t>k Ratio_Mn_Gl</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Mn</t>
+          <t>k Ratio_Na_Gl</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Na</t>
+          <t>k Ratio_P_Gl</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_P</t>
+          <t>k Ratio_S_Gl</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_S</t>
+          <t>k Ratio_Si_Gl</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Si</t>
+          <t>k Ratio_Ti_Gl</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Ti</t>
+          <t>Apparent Concentration_Na_Gl</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Na</t>
+          <t>Apparent Concentration_Mg_Gl</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Mg</t>
+          <t>Apparent Concentration_Al_Gl</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Al</t>
+          <t>Apparent Concentration_Si_Gl</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Si</t>
+          <t>Apparent Concentration_P_Gl</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_P</t>
+          <t>Apparent Concentration_S_Gl</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_S</t>
+          <t>Apparent Concentration_K_Gl</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_K</t>
+          <t>Apparent Concentration_Ca_Gl</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Ca</t>
+          <t>Apparent Concentration_Ti_Gl</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Ti</t>
+          <t>Apparent Concentration_Mn_Gl</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Mn</t>
+          <t>Apparent Concentration_Fe_Gl</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Fe</t>
+          <t>Factory Standard_Na_Gl</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Na</t>
+          <t>Factory Standard_Mg_Gl</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Mg</t>
+          <t>Factory Standard_Al_Gl</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Al</t>
+          <t>Factory Standard_Si_Gl</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Si</t>
+          <t>Factory Standard_P_Gl</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_P</t>
+          <t>Factory Standard_S_Gl</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_S</t>
+          <t>Factory Standard_K_Gl</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_K</t>
+          <t>Factory Standard_Ca_Gl</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Ca</t>
+          <t>Factory Standard_Ti_Gl</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Ti</t>
+          <t>Factory Standard_Mn_Gl</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Mn</t>
+          <t>Factory Standard_Fe_Gl</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>Factory Standard_Fe</t>
+          <t>Line_O_Gl</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>Line_O</t>
+          <t>Line_Na_Gl</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>Line_Na</t>
+          <t>Line_Mg_Gl</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>Line_Mg</t>
+          <t>Line_Al_Gl</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>Line_Al</t>
+          <t>Line_Si_Gl</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>Line_Si</t>
+          <t>Line_P_Gl</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>Line_P</t>
+          <t>Line_S_Gl</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>Line_S</t>
+          <t>Line_K_Gl</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>Line_K</t>
+          <t>Line_Ca_Gl</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>Line_Ca</t>
+          <t>Line_Ti_Gl</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>Line_Ti</t>
+          <t>Line_Mn_Gl</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>Line_Mn</t>
+          <t>Line_Fe_Gl</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>Line_Fe</t>
+          <t>SampleID_Gl</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>SampleID</t>
+          <t>Mg#_Gl</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>Mg#</t>
+          <t>Total_wt%_STD_Gl</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>Total_wt%_STD</t>
+          <t>Total_Oxide%_STD_Gl</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>Total_Oxide%_STD</t>
+          <t>Al2O3_STD_Gl</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>Al2O3_STD</t>
+          <t>CaO_STD_Gl</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>CaO_STD</t>
+          <t>FeOt_STD_Gl</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>FeOt_STD</t>
+          <t>K2O_STD_Gl</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>K2O_STD</t>
+          <t>MgO_STD_Gl</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>MgO_STD</t>
+          <t>MnO_STD_Gl</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>MnO_STD</t>
+          <t>Na2O_STD_Gl</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>Na2O_STD</t>
+          <t>P2O5_STD_Gl</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>P2O5_STD</t>
+          <t>SO2_STD_Gl</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>SO2_STD</t>
+          <t>SiO2_STD_Gl</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>SiO2_STD</t>
+          <t>TiO2_STD_Gl</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>TiO2_STD</t>
+          <t>Oxide % Sigma_Al2O3_STD_Gl</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_Al2O3_STD</t>
+          <t>Oxide % Sigma_CaO_STD_Gl</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_CaO_STD</t>
+          <t>Oxide % Sigma_FeOt_STD_Gl</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_FeOt_STD</t>
+          <t>Oxide % Sigma_K2O_STD_Gl</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_K2O_STD</t>
+          <t>Oxide % Sigma_MgO_STD_Gl</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_MgO_STD</t>
+          <t>Oxide % Sigma_MnO_STD_Gl</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_MnO_STD</t>
+          <t>Oxide % Sigma_Na2O_STD_Gl</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_Na2O_STD</t>
+          <t>Oxide % Sigma_P2O5_STD_Gl</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_P2O5_STD</t>
+          <t>Oxide % Sigma_S_STD_Gl</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_S_STD</t>
+          <t>Oxide % Sigma_SiO2_STD_Gl</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_SiO2_STD</t>
+          <t>Oxide % Sigma_TiO2_STD_Gl</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>Oxide % Sigma_TiO2_STD</t>
+          <t>Al2O3_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>Al2O3_norm_STD</t>
+          <t>CaO_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>CaO_norm_STD</t>
+          <t>FeOt_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>FeOt_norm_STD</t>
+          <t>K2O_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>K2O_norm_STD</t>
+          <t>MgO_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>MgO_norm_STD</t>
+          <t>MnO_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>MnO_norm_STD</t>
+          <t>Na2O_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>Na2O_norm_STD</t>
+          <t>P2O5_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>P2O5_norm_STD</t>
+          <t>SO2_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>SO2_norm_STD</t>
+          <t>SiO2_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>SiO2_norm_STD</t>
+          <t>TiO2_norm_STD_Gl</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>TiO2_norm_STD</t>
+          <t>Wt%_Al_STD_Gl</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Al_STD</t>
+          <t>Wt%_Ca_STD_Gl</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Ca_STD</t>
+          <t>Wt%_Fe_STD_Gl</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Fe_STD</t>
+          <t>Wt%_K_STD_Gl</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_K_STD</t>
+          <t>Wt%_Mg_STD_Gl</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Mg_STD</t>
+          <t>Wt%_Mn_STD_Gl</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Mn_STD</t>
+          <t>Wt%_Na_STD_Gl</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Na_STD</t>
+          <t>Wt%_O_STD_Gl</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_O_STD</t>
+          <t>Wt%_P_STD_Gl</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_P_STD</t>
+          <t>Wt%_S_STD_Gl</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_S_STD</t>
+          <t>Wt%_Si_STD_Gl</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Si_STD</t>
+          <t>Wt%_Ti_STD_Gl</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>Wt%_Ti_STD</t>
+          <t>Wt% Sigma_Al_STD_Gl</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Al_STD</t>
+          <t>Wt% Sigma_Ca_STD_Gl</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Ca_STD</t>
+          <t>Wt% Sigma_Fe_STD_Gl</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Fe_STD</t>
+          <t>Wt% Sigma_K_STD_Gl</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_K_STD</t>
+          <t>Wt% Sigma_Mg_STD_Gl</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Mg_STD</t>
+          <t>Wt% Sigma_Mn_STD_Gl</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Mn_STD</t>
+          <t>Wt% Sigma_Na_STD_Gl</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Na_STD</t>
+          <t>Wt% Sigma_P_STD_Gl</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_P_STD</t>
+          <t>Wt% Sigma_S_STD_Gl</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_S_STD</t>
+          <t>Wt% Sigma_Si_STD_Gl</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Si_STD</t>
+          <t>Wt% Sigma_Ti_STD_Gl</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>Wt% Sigma_Ti_STD</t>
+          <t>Atomic %_Al_STD_Gl</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Al_STD</t>
+          <t>Atomic %_Ca_STD_Gl</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Ca_STD</t>
+          <t>Atomic %_Fe_STD_Gl</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Fe_STD</t>
+          <t>Atomic %_K_STD_Gl</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_K_STD</t>
+          <t>Atomic %_Mg_STD_Gl</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Mg_STD</t>
+          <t>Atomic %_Mn_STD_Gl</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Mn_STD</t>
+          <t>Atomic %_Na_STD_Gl</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Na_STD</t>
+          <t>Atomic %_O_STD_Gl</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_O_STD</t>
+          <t>Atomic %_P_STD_Gl</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_P_STD</t>
+          <t>Atomic %_S_STD_Gl</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_S_STD</t>
+          <t>Atomic %_Si_STD_Gl</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Si_STD</t>
+          <t>Atomic %_Ti_STD_Gl</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>Atomic %_Ti_STD</t>
+          <t>Intensity Correction_Al_STD_Gl</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Al_STD</t>
+          <t>Intensity Correction_Ca_STD_Gl</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Ca_STD</t>
+          <t>Intensity Correction_Fe_STD_Gl</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Fe_STD</t>
+          <t>Intensity Correction_K_STD_Gl</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_K_STD</t>
+          <t>Intensity Correction_Mg_STD_Gl</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Mg_STD</t>
+          <t>Intensity Correction_Mn_STD_Gl</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Mn_STD</t>
+          <t>Intensity Correction_Na_STD_Gl</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Na_STD</t>
+          <t>Intensity Correction_P_STD_Gl</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_P_STD</t>
+          <t>Intensity Correction_S_STD_Gl</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_S_STD</t>
+          <t>Intensity Correction_Si_STD_Gl</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Si_STD</t>
+          <t>Intensity Correction_Ti_STD_Gl</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>Intensity Correction_Ti_STD</t>
+          <t>k Ratio_Al_STD_Gl</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Al_STD</t>
+          <t>k Ratio_Ca_STD_Gl</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Ca_STD</t>
+          <t>k Ratio_Fe_STD_Gl</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Fe_STD</t>
+          <t>k Ratio_K_STD_Gl</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_K_STD</t>
+          <t>k Ratio_Mg_STD_Gl</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Mg_STD</t>
+          <t>k Ratio_Mn_STD_Gl</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Mn_STD</t>
+          <t>k Ratio_Na_STD_Gl</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Na_STD</t>
+          <t>k Ratio_P_STD_Gl</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_P_STD</t>
+          <t>k Ratio_S_STD_Gl</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_S_STD</t>
+          <t>k Ratio_Si_STD_Gl</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Si_STD</t>
+          <t>k Ratio_Ti_STD_Gl</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>k Ratio_Ti_STD</t>
+          <t>Apparent Concentration_Na_STD_Gl</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Na_STD</t>
+          <t>Apparent Concentration_Mg_STD_Gl</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Mg_STD</t>
+          <t>Apparent Concentration_Al_STD_Gl</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Al_STD</t>
+          <t>Apparent Concentration_Si_STD_Gl</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Si_STD</t>
+          <t>Apparent Concentration_P_STD_Gl</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_P_STD</t>
+          <t>Apparent Concentration_S_STD_Gl</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_S_STD</t>
+          <t>Apparent Concentration_K_STD_Gl</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_K_STD</t>
+          <t>Apparent Concentration_Ca_STD_Gl</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Ca_STD</t>
+          <t>Apparent Concentration_Ti_STD_Gl</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Ti_STD</t>
+          <t>Apparent Concentration_Mn_STD_Gl</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Mn_STD</t>
+          <t>Apparent Concentration_Fe_STD_Gl</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>Apparent Concentration_Fe_STD</t>
+          <t>Mg#_STD_Gl</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>Mg#_STD</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>averaged?</t>
+          <t>averaged?_Gl</t>
         </is>
       </c>
     </row>
@@ -1800,829 +1795,827 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>JDFD2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98.43610000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.43613333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.87706666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.7973</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.90923333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1979666666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.559366666666667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2333666666666666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.731033333333334</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2178333333333333</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2897406047812945</v>
+      </c>
+      <c r="N2" t="n">
+        <v>49.54833333333332</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.002566666666667</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.07283333333333333</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.08059999999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01846666666666667</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05373333333333333</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03256666666666667</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0452</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0374</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.03706666666666666</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1286666666666667</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04183333333333333</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.10792982616653</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10.97687977227034</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12.10729599324212</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2012319791336891</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6.668561698671039</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.237241171714863</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2.776458259517489</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.2214385574824175</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.2945637206266636</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>50.3725130328142</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.035885988360654</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>7.3446</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>7.7169</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>9.257233333333334</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1643666666666667</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3.956</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.1807333333333333</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2.026066666666667</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>43.18846666666667</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.09506666666666667</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>23.16116666666667</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.200566666666667</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.03853333333333334</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.06266666666666666</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.01536666666666667</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.02523333333333333</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.03353333333333333</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.01633333333333334</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.01486666666666667</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.06016666666666667</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.02503333333333333</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>6.122966666666667</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>4.330966666666666</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.728666666666667</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.09453333333333334</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.660266666666667</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1.982366666666667</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>60.72186666666666</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.06903333333333334</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>18.54983333333334</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.9659999999999999</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.7503333333333333</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.7076666666666666</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.9196666666666667</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.7319999999999999</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.149333333333333</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Al2O3</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>CaO</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>FeO</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>K2O</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>MgO</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>MnO</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>Na2O</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>P2O5</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>SO3</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>SiO2</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>TiO2</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>Al2O3</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>Wollastonite</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>Fayalite</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>KBr</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>Forsterite</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>Albite</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>GaP</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>FeS2</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>Forsterite</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="DM2" s="2" t="n">
+        <v>45451.72260416667</v>
+      </c>
+      <c r="DN2" s="2" t="n">
+        <v>45451.72243055556</v>
+      </c>
+      <c r="DO2" s="2" t="n">
+        <v>45451.72247685185</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.03851</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.06659333333333334</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.07723999999999999</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.00134</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.01716666666666667</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.00605</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.00049</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.0009166666666666666</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.1379966666666667</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.009676666666666667</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1.433333333333333</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>2.973333333333333</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>5.359999999999999</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>26.61666666666666</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>7.453333333333333</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.1433333333333333</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>K series</t>
+        </is>
+      </c>
+      <c r="FI2" t="inlineStr">
+        <is>
           <t>JDFD2_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>JDFD2</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>98.43610000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>98.43613333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.87706666666667</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.7973</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11.90923333333333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1979666666666667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.559366666666667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2333666666666666</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.731033333333334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.2178333333333333</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.2897406047812945</v>
-      </c>
-      <c r="O2" t="n">
-        <v>49.54833333333332</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.002566666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.07283333333333333</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0539</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.08059999999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.01846666666666667</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.05373333333333333</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.03256666666666667</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0452</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0374</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.03706666666666666</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1286666666666667</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.04183333333333333</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14.10792982616653</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.97687977227034</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12.10729599324212</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.2012319791336891</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.668561698671039</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.237241171714863</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.776458259517489</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.2214385574824175</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.2945637206266636</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>50.3725130328142</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2.035885988360654</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>7.3446</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7.7169</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.257233333333334</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.1643666666666667</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>3.956</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.1807333333333333</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.026066666666667</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>43.18846666666667</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.09506666666666667</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>23.16116666666667</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1.200566666666667</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.03853333333333334</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.0385</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.06266666666666666</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.01536666666666667</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.0324</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.02523333333333333</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.03353333333333333</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.01633333333333334</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.01486666666666667</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.06016666666666667</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.02503333333333333</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>6.122966666666667</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>4.330966666666666</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>3.728666666666667</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.09453333333333334</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>3.660266666666667</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1.982366666666667</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>60.72186666666666</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.06903333333333334</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.1017</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>18.54983333333334</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.5638</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.9659999999999999</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.961</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.7503333333333333</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.7076666666666666</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.9196666666666667</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.7319999999999999</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1.149333333333333</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="CG2" t="inlineStr">
-        <is>
-          <t>Al2O3</t>
-        </is>
-      </c>
-      <c r="CH2" t="inlineStr">
-        <is>
-          <t>CaO</t>
-        </is>
-      </c>
-      <c r="CI2" t="inlineStr">
-        <is>
-          <t>FeO</t>
-        </is>
-      </c>
-      <c r="CJ2" t="inlineStr">
-        <is>
-          <t>K2O</t>
-        </is>
-      </c>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t>MgO</t>
-        </is>
-      </c>
-      <c r="CL2" t="inlineStr">
-        <is>
-          <t>MnO</t>
-        </is>
-      </c>
-      <c r="CM2" t="inlineStr">
-        <is>
-          <t>Na2O</t>
-        </is>
-      </c>
-      <c r="CN2" t="inlineStr">
-        <is>
-          <t>P2O5</t>
-        </is>
-      </c>
-      <c r="CO2" t="inlineStr">
-        <is>
-          <t>SO3</t>
-        </is>
-      </c>
-      <c r="CP2" t="inlineStr">
-        <is>
-          <t>SiO2</t>
-        </is>
-      </c>
-      <c r="CQ2" t="inlineStr">
-        <is>
-          <t>TiO2</t>
-        </is>
-      </c>
-      <c r="CR2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CS2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CU2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CV2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CX2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CY2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CZ2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="DA2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="DB2" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="DC2" t="inlineStr">
-        <is>
-          <t>Al2O3</t>
-        </is>
-      </c>
-      <c r="DD2" t="inlineStr">
-        <is>
-          <t>Wollastonite</t>
-        </is>
-      </c>
-      <c r="DE2" t="inlineStr">
-        <is>
-          <t>Fayalite</t>
-        </is>
-      </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t>KBr</t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr">
-        <is>
-          <t>Forsterite</t>
-        </is>
-      </c>
-      <c r="DH2" t="inlineStr">
-        <is>
-          <t>Mn</t>
-        </is>
-      </c>
-      <c r="DI2" t="inlineStr">
-        <is>
-          <t>Albite</t>
-        </is>
-      </c>
-      <c r="DJ2" t="inlineStr">
-        <is>
-          <t>GaP</t>
-        </is>
-      </c>
-      <c r="DK2" t="inlineStr">
-        <is>
-          <t>FeS2</t>
-        </is>
-      </c>
-      <c r="DL2" t="inlineStr">
-        <is>
-          <t>Forsterite</t>
-        </is>
-      </c>
-      <c r="DM2" t="inlineStr">
-        <is>
-          <t>Ti</t>
-        </is>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>45451.72260416667</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>45451.72243055556</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>45451.72247685185</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.03851</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.06659333333333334</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.07723999999999999</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.00134</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.01716666666666667</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.00147</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.00605</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.00049</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.0009166666666666666</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.1379966666666667</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.009676666666666667</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>1.433333333333333</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>2.973333333333333</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>5.359999999999999</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>26.61666666666666</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.08666666666666667</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>7.453333333333333</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.1433333333333333</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="EM2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="EO2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EP2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="EQ2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="ER2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="ES2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="ET2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EU2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EV2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EW2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="EX2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="EY2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="EZ2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FA2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FB2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FC2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FD2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FE2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FF2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FG2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FH2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FI2" t="inlineStr">
-        <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FJ2" t="inlineStr">
-        <is>
-          <t>JDFD2_1</t>
-        </is>
+      <c r="FJ2" t="n">
+        <v>0.5448932427289138</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.5448932427289138</v>
+        <v>0.2038879349054243</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.2038879349054243</v>
+        <v>0.2039229593089777</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.2039229593089777</v>
+        <v>0.04864692521972201</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04864692521972201</v>
+        <v>0.05489653905302291</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.05489653905302291</v>
+        <v>0.07219780698423903</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.07219780698423903</v>
+        <v>0.02014977253800482</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.02014977253800482</v>
+        <v>0.04749866664795286</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.04749866664795286</v>
+        <v>0.01053581194466442</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01053581194466442</v>
+        <v>0.04728005217143198</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.04728005217143198</v>
+        <v>0.03112721210345271</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.03112721210345271</v>
+        <v>0.0225512378180006</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0225512378180006</v>
+        <v>0.1191798780555375</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.1191798780555375</v>
+        <v>0.01540270539007122</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01540270539007122</v>
+        <v>0.0001527525231651884</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0001527525231651884</v>
+        <v>0.0001732050807568877</v>
       </c>
       <c r="FZ2" t="n">
+        <v>0.0002645751311064594</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>5.773502691896123e-05</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>5.773502691896473e-05</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.0001527525231651962</v>
+      </c>
+      <c r="GD2" t="n">
         <v>0.0001732050807568877</v>
       </c>
-      <c r="GA2" t="n">
-        <v>0.0002645751311064594</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>5.773502691896123e-05</v>
-      </c>
-      <c r="GC2" t="n">
+      <c r="GE2" t="n">
+        <v>0.0001000000000000011</v>
+      </c>
+      <c r="GF2" t="n">
         <v>5.773502691896473e-05</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GG2" t="n">
+        <v>5.773502691898426e-05</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.0002081665999466134</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.05369685096619616</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.04266351564810336</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.05846827545751576</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.02009297623990165</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.06217682349986264</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.01045071943489142</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.047377532888028</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.03141783615718746</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.02296230422062624</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.04407988039535073</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.01668141907821308</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.02577459989990228</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.03920803489082306</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.05606802416113141</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.0167720998486574</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.02867280941937845</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.008207516879868917</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.03508565708852169</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.07968295509915138</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.01358835285578548</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.01129291813483123</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.05567273420026599</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.009252206943931347</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>5.773502691896323e-05</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.0001000000000000029</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.0002309401076758469</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>5.773502691896397e-05</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.0001154700538379245</v>
+      </c>
+      <c r="HL2" t="n">
         <v>0.0001527525231651962</v>
       </c>
-      <c r="GE2" t="n">
-        <v>0.0001732050807568877</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.0001000000000000011</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>5.773502691896473e-05</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>5.773502691898426e-05</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.0002081665999466134</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.05369685096619616</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.04266351564810336</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.05846827545751576</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.02009297623990165</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.06217682349986265</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.01045071943489142</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.04737753288802799</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.03141783615718746</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.02296230422062624</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.04407988039535073</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.01668141907821308</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.02577459989990228</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.03920803489082306</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.05606802416113141</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.0167720998486574</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.02867280941937845</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.008207516879868917</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.03508565708852169</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.07968295509915138</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.01358835285578548</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.01129291813483123</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.05567273420026599</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.009252206943931347</v>
-      </c>
-      <c r="HG2" t="n">
+      <c r="HM2" t="n">
+        <v>5.773502691896398e-05</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>5.773502691896223e-05</v>
+      </c>
+      <c r="HO2" t="n">
         <v>5.773502691896323e-05</v>
       </c>
-      <c r="HH2" t="n">
-        <v>0.0001000000000000029</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.0002309401076758469</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>5.773502691896397e-05</v>
-      </c>
-      <c r="HK2" t="n">
+      <c r="HP2" t="n">
+        <v>0.0001154700538379252</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.02252827852573984</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.01745432133694474</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.01840036231527331</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.009468544414709868</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.03313854754411143</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.003315116890850153</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.03392997691324489</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.01813679501272143</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.009845980567385519</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0.007922752047110905</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.01834620760084772</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0.004590206967011365</v>
+      </c>
+      <c r="IC2" t="n">
         <v>0</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.0001154700538379245</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.0001527525231651962</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>5.773502691896397e-05</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>5.773502691896223e-05</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>5.773502691896323e-05</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.0001154700538379252</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.02252827852573984</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.01745432133694474</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.01840036231527331</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.009468544414709868</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.03313854754411143</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.003315116890850153</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.03392997691324489</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.01813679501272143</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.009845980567385519</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.007922752047110905</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.01834620760084772</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.004590206967011365</v>
       </c>
       <c r="ID2" t="n">
         <v>0</v>
@@ -2634,99 +2627,96 @@
         <v>0</v>
       </c>
       <c r="IG2" t="n">
+        <v>0.0005773502691896344</v>
+      </c>
+      <c r="IH2" t="n">
         <v>0</v>
       </c>
-      <c r="IH2" t="n">
-        <v>0.0005773502691896344</v>
-      </c>
       <c r="II2" t="n">
+        <v>0.0005773502691895862</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0.0005773502691896262</v>
+      </c>
+      <c r="IK2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ2" t="n">
-        <v>0.0005773502691895862</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.0005773502691896262</v>
-      </c>
       <c r="IL2" t="n">
+        <v>0.0005773502691895622</v>
+      </c>
+      <c r="IM2" t="n">
         <v>0</v>
       </c>
-      <c r="IM2" t="n">
-        <v>0.0005773502691895622</v>
-      </c>
       <c r="IN2" t="n">
-        <v>0</v>
+        <v>0.0001410673597966563</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.0001410673597966563</v>
+        <v>0.0003394603560555119</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.000339460356055512</v>
+        <v>0.0004728636167014732</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.0004728636167014732</v>
+        <v>0.0001385640646055101</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.0001385640646055101</v>
+        <v>0.000132790561913613</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.000132790561913613</v>
+        <v>6.999999999999997e-05</v>
       </c>
       <c r="IT2" t="n">
-        <v>6.999999999999997e-05</v>
+        <v>0.0001081665382639193</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.0001081665382639193</v>
+        <v>7.000000000000001e-05</v>
       </c>
       <c r="IV2" t="n">
-        <v>7.000000000000001e-05</v>
+        <v>7.094598884597584e-05</v>
       </c>
       <c r="IW2" t="n">
-        <v>7.094598884597582e-05</v>
+        <v>0.0003952636251077733</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.0003952636251077733</v>
+        <v>7.505553499465154e-05</v>
       </c>
       <c r="IY2" t="n">
-        <v>7.505553499465154e-05</v>
+        <v>0.02516611478423583</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.02516611478423583</v>
+        <v>0.02309401076758502</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.02309401076758502</v>
+        <v>0.02000000000000013</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.02000000000000013</v>
+        <v>0.07767453465153963</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.07767453465153963</v>
+        <v>0.01154700538379251</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.01154700538379251</v>
+        <v>0.005773502691896256</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.005773502691896256</v>
+        <v>0.01732050807568877</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.01732050807568877</v>
+        <v>0.03511884584284235</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.03511884584284235</v>
+        <v>0.005773502691896255</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.005773502691896255</v>
+        <v>0.005773502691896247</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.005773502691896247</v>
+        <v>0.05291502622129236</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.05291502622129236</v>
-      </c>
-      <c r="JK2" t="n">
         <v>0.002989177237999679</v>
       </c>
-      <c r="JL2" t="inlineStr">
+      <c r="JK2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2738,550 +2728,550 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mount1_glass1_1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>K24</t>
         </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99.70778</v>
       </c>
       <c r="D3" t="n">
         <v>99.70778</v>
       </c>
       <c r="E3" t="n">
-        <v>99.70778</v>
+        <v>14.09682</v>
       </c>
       <c r="F3" t="n">
-        <v>14.09682</v>
+        <v>10.95044</v>
       </c>
       <c r="G3" t="n">
-        <v>10.95044</v>
+        <v>10.86684</v>
       </c>
       <c r="H3" t="n">
-        <v>10.86684</v>
+        <v>0.5209400000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5209400000000001</v>
+        <v>6.434659999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>6.434659999999999</v>
+        <v>0.19492</v>
       </c>
       <c r="K3" t="n">
-        <v>0.19492</v>
+        <v>2.50392</v>
       </c>
       <c r="L3" t="n">
-        <v>2.50392</v>
+        <v>0.27322</v>
       </c>
       <c r="M3" t="n">
-        <v>0.27322</v>
+        <v>0.02394100771901776</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02394100771901776</v>
+        <v>50.91704</v>
       </c>
       <c r="O3" t="n">
-        <v>50.91704</v>
+        <v>2.91914</v>
       </c>
       <c r="P3" t="n">
-        <v>2.91914</v>
+        <v>0.07328</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07328</v>
+        <v>0.05442</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05442</v>
+        <v>0.07804</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07804</v>
+        <v>0.02052</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02052</v>
+        <v>0.05338</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05338</v>
+        <v>0.03222</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03222</v>
+        <v>0.0443</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0443</v>
+        <v>0.0385</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0385</v>
+        <v>0.03476</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03476</v>
+        <v>0.13036</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.13036</v>
+        <v>0.04628</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04628</v>
+        <v>14.13879906743594</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.13879906743594</v>
+        <v>10.98328393470105</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.98328393470105</v>
+        <v>10.89957890285668</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.89957890285668</v>
+        <v>0.5225322507818013</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5225322507818013</v>
+        <v>6.453707056778383</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.453707056778383</v>
+        <v>0.1956160623227014</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1956160623227014</v>
+        <v>2.511385244639422</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.511385244639422</v>
+        <v>0.2739126501768652</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2739126501768652</v>
+        <v>0.02399207853075046</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02399207853075046</v>
+        <v>51.06927332231806</v>
       </c>
       <c r="AK3" t="n">
-        <v>51.06927332231806</v>
+        <v>2.927919429458342</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.927919429458342</v>
+        <v>7.4609</v>
       </c>
       <c r="AM3" t="n">
-        <v>7.4609</v>
+        <v>7.82632</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.82632</v>
+        <v>8.446960000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.446960000000001</v>
+        <v>0.43248</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.43248</v>
+        <v>3.8808</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.8808</v>
+        <v>0.15096</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.15096</v>
+        <v>1.85758</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.85758</v>
+        <v>43.96957999999999</v>
       </c>
       <c r="AT3" t="n">
-        <v>43.96957999999999</v>
+        <v>0.11922</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.11922</v>
+        <v>0.01198</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.01198</v>
+        <v>23.80094</v>
       </c>
       <c r="AW3" t="n">
-        <v>23.80094</v>
+        <v>1.75006</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.75006</v>
+        <v>0.03878</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.03878</v>
+        <v>0.03888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.03888</v>
+        <v>0.06068</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.06068</v>
+        <v>0.01702</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01702</v>
+        <v>0.0322</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0322</v>
+        <v>0.02494</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02494</v>
+        <v>0.03286</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.03286</v>
+        <v>0.0168</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0168</v>
+        <v>0.01392</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01392</v>
+        <v>0.06093999999999999</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.06093999999999999</v>
+        <v>0.02776</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.02776</v>
+        <v>6.125999999999999</v>
       </c>
       <c r="BJ3" t="n">
-        <v>6.125999999999999</v>
+        <v>4.32612</v>
       </c>
       <c r="BK3" t="n">
-        <v>4.32612</v>
+        <v>3.351</v>
       </c>
       <c r="BL3" t="n">
-        <v>3.351</v>
+        <v>0.24506</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.24506</v>
+        <v>3.53634</v>
       </c>
       <c r="BN3" t="n">
-        <v>3.53634</v>
+        <v>0.06091999999999999</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.06091999999999999</v>
+        <v>1.79006</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.79006</v>
+        <v>60.88692</v>
       </c>
       <c r="BQ3" t="n">
-        <v>60.88692</v>
+        <v>0.08521999999999999</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.08521999999999999</v>
+        <v>0.008279999999999999</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.008279999999999999</v>
+        <v>18.77458</v>
       </c>
       <c r="BT3" t="n">
-        <v>18.77458</v>
+        <v>0.80946</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.80946</v>
+        <v>0.738</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.738</v>
+        <v>0.9645999999999999</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.9645999999999999</v>
+        <v>0.916</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.916</v>
+        <v>0.9616</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.9616</v>
+        <v>0.7588</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.7588</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.7141999999999999</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.7141999999999999</v>
+        <v>0.9200000000000002</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.9200000000000002</v>
+        <v>0.7323999999999999</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.7323999999999999</v>
+        <v>1.1574</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.1574</v>
-      </c>
-      <c r="CF3" t="n">
         <v>0.804</v>
       </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>Al2O3</t>
+        </is>
+      </c>
       <c r="CG3" t="inlineStr">
         <is>
+          <t>CaO</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>FeO</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>K2O</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>MgO</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>MnO</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>Na2O</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>P2O5</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>SO3</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>SiO2</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>TiO2</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
           <t>Al2O3</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr">
-        <is>
-          <t>CaO</t>
-        </is>
-      </c>
-      <c r="CI3" t="inlineStr">
-        <is>
-          <t>FeO</t>
-        </is>
-      </c>
-      <c r="CJ3" t="inlineStr">
-        <is>
-          <t>K2O</t>
-        </is>
-      </c>
-      <c r="CK3" t="inlineStr">
-        <is>
-          <t>MgO</t>
-        </is>
-      </c>
-      <c r="CL3" t="inlineStr">
-        <is>
-          <t>MnO</t>
-        </is>
-      </c>
-      <c r="CM3" t="inlineStr">
-        <is>
-          <t>Na2O</t>
-        </is>
-      </c>
-      <c r="CN3" t="inlineStr">
-        <is>
-          <t>P2O5</t>
-        </is>
-      </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>SO3</t>
-        </is>
-      </c>
-      <c r="CP3" t="inlineStr">
-        <is>
-          <t>SiO2</t>
-        </is>
-      </c>
-      <c r="CQ3" t="inlineStr">
-        <is>
-          <t>TiO2</t>
-        </is>
-      </c>
-      <c r="CR3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CS3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CU3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CX3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CY3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="DA3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
-      <c r="DB3" t="inlineStr">
-        <is>
-          <t>EDS</t>
-        </is>
-      </c>
       <c r="DC3" t="inlineStr">
         <is>
-          <t>Al2O3</t>
+          <t>Wollastonite</t>
         </is>
       </c>
       <c r="DD3" t="inlineStr">
         <is>
-          <t>Wollastonite</t>
+          <t>Fayalite</t>
         </is>
       </c>
       <c r="DE3" t="inlineStr">
         <is>
-          <t>Fayalite</t>
+          <t>KBr</t>
         </is>
       </c>
       <c r="DF3" t="inlineStr">
         <is>
-          <t>KBr</t>
+          <t>Forsterite</t>
         </is>
       </c>
       <c r="DG3" t="inlineStr">
         <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>Albite</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>GaP</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>FeS2</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
           <t>Forsterite</t>
         </is>
       </c>
-      <c r="DH3" t="inlineStr">
-        <is>
-          <t>Mn</t>
-        </is>
-      </c>
-      <c r="DI3" t="inlineStr">
-        <is>
-          <t>Albite</t>
-        </is>
-      </c>
-      <c r="DJ3" t="inlineStr">
-        <is>
-          <t>GaP</t>
-        </is>
-      </c>
-      <c r="DK3" t="inlineStr">
-        <is>
-          <t>FeS2</t>
-        </is>
-      </c>
       <c r="DL3" t="inlineStr">
         <is>
-          <t>Forsterite</t>
-        </is>
-      </c>
-      <c r="DM3" t="inlineStr">
-        <is>
           <t>Ti</t>
         </is>
       </c>
+      <c r="DM3" s="2" t="n">
+        <v>45451.72260416667</v>
+      </c>
       <c r="DN3" s="2" t="n">
-        <v>45451.72260416667</v>
+        <v>45451.72243055556</v>
       </c>
       <c r="DO3" s="2" t="n">
-        <v>45451.72243055556</v>
-      </c>
-      <c r="DP3" s="2" t="n">
         <v>45451.72247685185</v>
       </c>
+      <c r="DP3" t="n">
+        <v>0.039538</v>
+      </c>
       <c r="DQ3" t="n">
-        <v>0.039538</v>
+        <v>0.06744799999999999</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.06744799999999999</v>
+        <v>0.070344</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.070344</v>
+        <v>0.003522</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.003522</v>
+        <v>0.017024</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.017024</v>
+        <v>0.001228</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001228</v>
+        <v>0.0056</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0056</v>
+        <v>0.000614</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.000614</v>
+        <v>7.800000000000001e-05</v>
       </c>
       <c r="DY3" t="n">
-        <v>7.800000000000001e-05</v>
+        <v>0.142828</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.142828</v>
+        <v>0.014074</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.014074</v>
+        <v>1.326</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.326</v>
+        <v>2.944</v>
       </c>
       <c r="EC3" t="n">
-        <v>2.944</v>
+        <v>5.506</v>
       </c>
       <c r="ED3" t="n">
-        <v>5.506</v>
+        <v>27.55</v>
       </c>
       <c r="EE3" t="n">
-        <v>27.55</v>
+        <v>0.11</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.11</v>
+        <v>0.008</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.008</v>
+        <v>0.416</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.416</v>
+        <v>7.548</v>
       </c>
       <c r="EI3" t="n">
-        <v>7.548</v>
+        <v>1.408</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.408</v>
+        <v>0.122</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="EL3" t="n">
         <v>7.74</v>
       </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="EM3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="EN3" t="inlineStr">
+      <c r="EO3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="EO3" t="inlineStr">
+      <c r="EP3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="EP3" t="inlineStr">
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="EV3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="EQ3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="ER3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="ES3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="ET3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EU3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="EV3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="EW3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>K series</t>
         </is>
       </c>
       <c r="EX3" t="inlineStr">
@@ -3341,330 +3331,325 @@
       </c>
       <c r="FI3" t="inlineStr">
         <is>
-          <t>K series</t>
-        </is>
-      </c>
-      <c r="FJ3" t="inlineStr">
-        <is>
           <t>Mount1_glass1_1</t>
         </is>
       </c>
+      <c r="FJ3" t="n">
+        <v>0.5627692954266449</v>
+      </c>
       <c r="FK3" t="n">
-        <v>0.5627692954266449</v>
+        <v>0.7597459193704219</v>
       </c>
       <c r="FL3" t="n">
         <v>0.7597459193704219</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.7597459193704219</v>
+        <v>0.138496180452748</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.138496180452748</v>
+        <v>0.07128750241101189</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.07128750241101189</v>
+        <v>0.05813267583726012</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.05813267583726012</v>
+        <v>0.01281924334740549</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01281924334740549</v>
+        <v>0.08397266221812962</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.08397266221812963</v>
+        <v>0.01931080008699795</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01931080008699795</v>
+        <v>0.05879725333720954</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.05879725333720954</v>
+        <v>0.02822688434808206</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.02822688434808206</v>
+        <v>0.01021293835435728</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.01021293835435728</v>
+        <v>0.3973332832774049</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.3973332832774049</v>
+        <v>0.02372104550815589</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.02372104550815589</v>
+        <v>0.0004604345773288534</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0004604345773288534</v>
+        <v>0.0002588435821108939</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0002588435821108939</v>
+        <v>0.0002701851217221278</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0002701851217221278</v>
+        <v>0.0001095445115010327</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0001095445115010327</v>
+        <v>0.0003563705936241121</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0003563705936241121</v>
+        <v>0.0001303840481040527</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0001303840481040527</v>
+        <v>0.0003937003937005906</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0003937003937005906</v>
+        <v>0.0006670832032063178</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0006670832032063178</v>
+        <v>0.0003974921382870326</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0003974921382870326</v>
+        <v>0.0009736529155710499</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.0009736529155710501</v>
+        <v>0.0002280350850198257</v>
       </c>
       <c r="GI3" t="n">
-        <v>0.0002280350850198257</v>
+        <v>0.04062298514642801</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.04062298514642801</v>
+        <v>0.03006903653740086</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.03006903653740086</v>
+        <v>0.05676481630612971</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.05676481630612971</v>
+        <v>0.01403511461787468</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.01403511461787468</v>
+        <v>0.03926763670672945</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.03926763670672945</v>
+        <v>0.02070051321007351</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.02070051321007351</v>
+        <v>0.05430784040766129</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.05430784040766129</v>
+        <v>0.02678489183323506</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.02678489183323506</v>
+        <v>0.01011332538934799</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.01011332538934799</v>
+        <v>0.07836351727204832</v>
       </c>
       <c r="GS3" t="n">
-        <v>0.07836351727204832</v>
+        <v>0.02102247455294362</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.02102247455294362</v>
+        <v>0.0732632581858056</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.0732632581858056</v>
+        <v>0.0509531353304192</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.0509531353304192</v>
+        <v>0.04519239980350663</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.04519239980350663</v>
+        <v>0.01067295647887687</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.01067295647887687</v>
+        <v>0.05064173180293088</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.05064173180293088</v>
+        <v>0.01496305450100347</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.01496305450100347</v>
+        <v>0.04360868032857677</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.04360868032857677</v>
+        <v>0.3552697876262462</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.3552697876262462</v>
+        <v>0.01232931466059651</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.01232931466059651</v>
+        <v>0.005087435503276676</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.005087435503276676</v>
+        <v>0.1857259755661535</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.1857259755661535</v>
+        <v>0.01419852104974314</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.01419852104974314</v>
+        <v>0.0002387467277262675</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.0002387467277262675</v>
+        <v>0.0001788854381999845</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.0001788854381999845</v>
+        <v>0.0002167948338867846</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0002167948338867846</v>
+        <v>0.0001095445115010334</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.0001095445115010334</v>
+        <v>0.0002121320343559649</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.0002121320343559649</v>
+        <v>0.0001140175425099148</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.0001140175425099148</v>
+        <v>0.0002880972058177605</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.0002880972058177605</v>
+        <v>0.0002915475947422656</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.0002915475947422656</v>
+        <v>0.0001788854381999838</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.0001788854381999838</v>
+        <v>0.0004393176527297744</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.0004393176527297745</v>
+        <v>0.0001516575088810309</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.0001516575088810309</v>
+        <v>0.01532187978023581</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.01532187978023581</v>
+        <v>0.01318889684545312</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.01318889684545312</v>
+        <v>0.0187783119582138</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.0187783119582138</v>
+        <v>0.006633475710364808</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.006633475710364808</v>
+        <v>0.0204929988044697</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.02049299880446969</v>
+        <v>0.006482437813045335</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.006482437813045335</v>
+        <v>0.0388800462962687</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.0388800462962687</v>
+        <v>0.02676521996920696</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02676521996920696</v>
+        <v>0.008313062011076294</v>
       </c>
       <c r="HZ3" t="n">
-        <v>0.008313062011076294</v>
+        <v>0.003512406582387637</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.003512406582387637</v>
+        <v>0.02714326804200325</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.02714326804200325</v>
+        <v>0.005853460514943296</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005853460514943296</v>
+        <v>0.0007071067811865482</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.0007071067811865482</v>
+        <v>0.0005477225575051823</v>
       </c>
       <c r="IE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF3" t="n">
         <v>0.0005477225575051823</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IG3" t="n">
+        <v>0.0008366600265340608</v>
+      </c>
+      <c r="IH3" t="n">
         <v>0</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0.0005477225575051823</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0.0008366600265340608</v>
-      </c>
       <c r="II3" t="n">
+        <v>0.000836660026534063</v>
+      </c>
+      <c r="IJ3" t="n">
         <v>0</v>
       </c>
-      <c r="IJ3" t="n">
-        <v>0.000836660026534063</v>
-      </c>
       <c r="IK3" t="n">
+        <v>0.0005477225575052004</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0.0005477225575051058</v>
+      </c>
+      <c r="IM3" t="n">
         <v>0</v>
       </c>
-      <c r="IL3" t="n">
-        <v>0.0005477225575052004</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0.0005477225575051058</v>
-      </c>
       <c r="IN3" t="n">
-        <v>0</v>
+        <v>0.0004003998001997487</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.0004003998001997487</v>
+        <v>0.0004315321540742933</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.0004315321540742933</v>
+        <v>0.0003730013404801675</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0003730013404801675</v>
+        <v>9.011104260855056e-05</v>
       </c>
       <c r="IR3" t="n">
-        <v>9.011104260855056e-05</v>
+        <v>0.0002324435415321321</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.0002324435415321321</v>
+        <v>0.0001211197754291181</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.0001211197754291181</v>
+        <v>0.0001334166406412633</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.0001334166406412633</v>
+        <v>6.228964600958976e-05</v>
       </c>
       <c r="IV3" t="n">
-        <v>6.228964600958976e-05</v>
+        <v>3.033150177620621e-05</v>
       </c>
       <c r="IW3" t="n">
-        <v>3.033150177620621e-05</v>
+        <v>0.001108904865171031</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.001108904865171031</v>
+        <v>0.0001145862120850495</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.0001145862120850495</v>
+        <v>0.03361547262794328</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.03361547262794328</v>
+        <v>0.03847076812334261</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.03847076812334261</v>
+        <v>0.05549774770204631</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.05549774770204631</v>
+        <v>0.214709105535838</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.214709105535838</v>
+        <v>0.01414213562373095</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.01414213562373095</v>
+        <v>0.00447213595499958</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.01140175425099136</v>
       </c>
       <c r="JF3" t="n">
-        <v>0.01140175425099136</v>
+        <v>0.04969909455915671</v>
       </c>
       <c r="JG3" t="n">
-        <v>0.04969909455915671</v>
+        <v>0.00836660026534077</v>
       </c>
       <c r="JH3" t="n">
-        <v>0.00836660026534077</v>
+        <v>0.01095445115010333</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.01095445115010333</v>
+        <v>0.04123105625617632</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.04123105625617632</v>
-      </c>
-      <c r="JK3" t="n">
         <v>0.002511663183787879</v>
       </c>
-      <c r="JL3" t="inlineStr">
+      <c r="JK3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_GlassEDS_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_GlassEDS_averaged.xlsx
@@ -2489,13 +2489,13 @@
         <v>0.02009297623990165</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.06217682349986264</v>
+        <v>0.06217682349986265</v>
       </c>
       <c r="GN2" t="n">
         <v>0.01045071943489142</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.047377532888028</v>
+        <v>0.04737753288802799</v>
       </c>
       <c r="GP2" t="n">
         <v>0.03141783615718746</v>
@@ -2567,7 +2567,7 @@
         <v>0.0001527525231651962</v>
       </c>
       <c r="HM2" t="n">
-        <v>5.773502691896398e-05</v>
+        <v>5.773502691896397e-05</v>
       </c>
       <c r="HN2" t="n">
         <v>5.773502691896223e-05</v>
@@ -2651,7 +2651,7 @@
         <v>0.0001410673597966563</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.0003394603560555119</v>
+        <v>0.000339460356055512</v>
       </c>
       <c r="IP2" t="n">
         <v>0.0004728636167014732</v>
@@ -2672,7 +2672,7 @@
         <v>7.000000000000001e-05</v>
       </c>
       <c r="IV2" t="n">
-        <v>7.094598884597584e-05</v>
+        <v>7.094598884597582e-05</v>
       </c>
       <c r="IW2" t="n">
         <v>0.0003952636251077733</v>
@@ -3356,7 +3356,7 @@
         <v>0.01281924334740549</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.08397266221812962</v>
+        <v>0.08397266221812963</v>
       </c>
       <c r="FR3" t="n">
         <v>0.01931080008699795</v>
@@ -3404,7 +3404,7 @@
         <v>0.0003974921382870326</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0009736529155710499</v>
+        <v>0.0009736529155710501</v>
       </c>
       <c r="GH3" t="n">
         <v>0.0002280350850198257</v>
@@ -3506,7 +3506,7 @@
         <v>0.0001788854381999838</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.0004393176527297744</v>
+        <v>0.0004393176527297745</v>
       </c>
       <c r="HP3" t="n">
         <v>0.0001516575088810309</v>
@@ -3524,7 +3524,7 @@
         <v>0.006633475710364808</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0204929988044697</v>
+        <v>0.02049299880446969</v>
       </c>
       <c r="HV3" t="n">
         <v>0.006482437813045335</v>
